--- a/Tampere.xlsx
+++ b/Tampere.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>DateTime</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>Typical minimum temperature (high)</t>
+  </si>
+  <si>
+    <t>LINK：https://en.ilmatieteenlaitos.fi/past-30-day-weather</t>
   </si>
 </sst>
 </file>
@@ -1206,15 +1209,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H30"/>
+  <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="60" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="21.5555555555556" customWidth="1"/>
+    <col min="2" max="2" width="18.4444444444444" customWidth="1"/>
+    <col min="5" max="8" width="10" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1399,7 +1404,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:11">
       <c r="A8" s="1">
         <v>45903</v>
       </c>
@@ -1423,6 +1428,9 @@
       </c>
       <c r="H8">
         <v>11.4</v>
+      </c>
+      <c r="K8" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:8">
